--- a/data/trans_orig/P1429-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1429-Provincia-trans_orig.xlsx
@@ -757,19 +757,19 @@
         <v>7215</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3163</v>
+        <v>2838</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15536</v>
+        <v>14132</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02766107478175705</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01212629802606275</v>
+        <v>0.01087865844196484</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05956265325731663</v>
+        <v>0.05418001309975974</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -778,19 +778,19 @@
         <v>7215</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3267</v>
+        <v>3026</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16014</v>
+        <v>13619</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01351519819248226</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006119894976155096</v>
+        <v>0.005667587909047211</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02999727419041051</v>
+        <v>0.02551133759434739</v>
       </c>
     </row>
     <row r="5">
@@ -820,19 +820,19 @@
         <v>253623</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245302</v>
+        <v>246706</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257675</v>
+        <v>258000</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9723389252182429</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9404373467426831</v>
+        <v>0.9458199869002403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9878737019739373</v>
+        <v>0.9891213415580351</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>509</v>
@@ -841,19 +841,19 @@
         <v>526633</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>517834</v>
+        <v>520229</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>530581</v>
+        <v>530822</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9864848018075177</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9700027258095897</v>
+        <v>0.9744886624056531</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9938801050238449</v>
+        <v>0.9943324120909528</v>
       </c>
     </row>
     <row r="6">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5385</v>
+        <v>5360</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001999674459139861</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01092050189335689</v>
+        <v>0.01087142774922975</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -966,19 +966,19 @@
         <v>35142</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24712</v>
+        <v>25220</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46728</v>
+        <v>49052</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06973258327299875</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0490361997885665</v>
+        <v>0.05004549574155235</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09272391953530072</v>
+        <v>0.09733459046628314</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -987,19 +987,19 @@
         <v>36128</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25669</v>
+        <v>25671</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49484</v>
+        <v>49991</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03623549016666641</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02574599805412536</v>
+        <v>0.0257480981396626</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04963133541850084</v>
+        <v>0.05014029359613123</v>
       </c>
     </row>
     <row r="8">
@@ -1016,7 +1016,7 @@
         <v>492089</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>487690</v>
+        <v>487715</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>493075</v>
@@ -1025,7 +1025,7 @@
         <v>0.9980003255408602</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9890794981066479</v>
+        <v>0.9891285722507718</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1037,19 +1037,19 @@
         <v>468807</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>457221</v>
+        <v>454897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>479237</v>
+        <v>478729</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9302674167270013</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9072760804646993</v>
+        <v>0.9026654095337168</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9509638002114335</v>
+        <v>0.9499545042584476</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>930</v>
@@ -1058,19 +1058,19 @@
         <v>960896</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>947540</v>
+        <v>947033</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>971355</v>
+        <v>971353</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9637645098333336</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9503686645814992</v>
+        <v>0.9498597064038689</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9742540019458746</v>
+        <v>0.9742519018603374</v>
       </c>
     </row>
     <row r="9">
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4924</v>
+        <v>4957</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003113580131185471</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0154423377428991</v>
+        <v>0.01554694198024058</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1183,19 +1183,19 @@
         <v>13361</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7334</v>
+        <v>7586</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21926</v>
+        <v>21881</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03983473843722188</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02186673021768143</v>
+        <v>0.02261550842522089</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06536925491344037</v>
+        <v>0.06523657593158762</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1204,19 +1204,19 @@
         <v>14354</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8794</v>
+        <v>8323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24400</v>
+        <v>23843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02193905700712456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01344076387741465</v>
+        <v>0.01272152570724555</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0372941835165639</v>
+        <v>0.03644280430419646</v>
       </c>
     </row>
     <row r="11">
@@ -1233,7 +1233,7 @@
         <v>317853</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>313922</v>
+        <v>313889</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>318846</v>
@@ -1242,7 +1242,7 @@
         <v>0.9968864198688145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.984557662257101</v>
+        <v>0.9844530580197595</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1254,19 +1254,19 @@
         <v>322051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>313486</v>
+        <v>313531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328078</v>
+        <v>327826</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9601652615627781</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9346307450865595</v>
+        <v>0.9347634240684123</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9781332697823184</v>
+        <v>0.9773844915747789</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>631</v>
@@ -1275,19 +1275,19 @@
         <v>639904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>629858</v>
+        <v>630415</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>645464</v>
+        <v>645935</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9780609429928755</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9627058164834359</v>
+        <v>0.963557195695803</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9865592361225851</v>
+        <v>0.9872784742927544</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>14741</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8981</v>
+        <v>8952</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23610</v>
+        <v>23273</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03968571260608505</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02417807383469885</v>
+        <v>0.02409893173667677</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06356006770995501</v>
+        <v>0.06265257474554529</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1413,19 +1413,19 @@
         <v>14741</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8779</v>
+        <v>9000</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23821</v>
+        <v>24296</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02019031362878929</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01202437295920514</v>
+        <v>0.01232603997413323</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03262579793427201</v>
+        <v>0.03327577223024718</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>356715</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>347846</v>
+        <v>348183</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>362475</v>
+        <v>362504</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.960314287393915</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.936439932290045</v>
+        <v>0.9373474252544547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9758219261653011</v>
+        <v>0.9759010682633232</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>730</v>
@@ -1476,19 +1476,19 @@
         <v>715386</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>706306</v>
+        <v>705831</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>721348</v>
+        <v>721127</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9798096863712107</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9673742020657277</v>
+        <v>0.9667242277697528</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9879756270407939</v>
+        <v>0.9876739600258667</v>
       </c>
     </row>
     <row r="15">
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4486</v>
+        <v>4874</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003981682152493913</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02206622021104757</v>
+        <v>0.02397308997104144</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1601,19 +1601,19 @@
         <v>3272</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8154</v>
+        <v>8877</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01575825392801623</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004767726048404725</v>
+        <v>0.004737757972570157</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03926526921754528</v>
+        <v>0.04274387201169982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1622,19 +1622,19 @@
         <v>4082</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10496</v>
+        <v>9482</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009932435563295332</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002764303627849658</v>
+        <v>0.002756035886569178</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02553978758627449</v>
+        <v>0.02307229918868227</v>
       </c>
     </row>
     <row r="17">
@@ -1651,7 +1651,7 @@
         <v>202498</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198822</v>
+        <v>198434</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>203308</v>
@@ -1660,7 +1660,7 @@
         <v>0.9960183178475061</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9779337797889519</v>
+        <v>0.9760269100289586</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1672,19 +1672,19 @@
         <v>204396</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199514</v>
+        <v>198791</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206678</v>
+        <v>206684</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9842417460719838</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.960734730782456</v>
+        <v>0.9572561279883002</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9952322739515953</v>
+        <v>0.9952622420274299</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>400</v>
@@ -1693,19 +1693,19 @@
         <v>406894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>400480</v>
+        <v>401494</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>409840</v>
+        <v>409843</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9900675644367046</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9744602124137253</v>
+        <v>0.9769277008113176</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9972356963721504</v>
+        <v>0.9972439641134309</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>11724</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6336</v>
+        <v>6280</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20548</v>
+        <v>19888</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04215158804065356</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02278115530419958</v>
+        <v>0.02257666089343414</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0738745828391011</v>
+        <v>0.07150264608452683</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1831,19 +1831,19 @@
         <v>11724</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5792</v>
+        <v>6375</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20395</v>
+        <v>20299</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02135732659070988</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01055096519528071</v>
+        <v>0.01161209026006093</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03715188908997997</v>
+        <v>0.03697829753456962</v>
       </c>
     </row>
     <row r="20">
@@ -1873,19 +1873,19 @@
         <v>266420</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257596</v>
+        <v>258256</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271808</v>
+        <v>271864</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9578484119593464</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9261254171608989</v>
+        <v>0.9284973539154732</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9772188446958004</v>
+        <v>0.9774233391065659</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>525</v>
@@ -1894,19 +1894,19 @@
         <v>537231</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>528560</v>
+        <v>528656</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>543163</v>
+        <v>542580</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9786426734092901</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.96284811091002</v>
+        <v>0.9630217024654304</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9894490348047192</v>
+        <v>0.9883879097399391</v>
       </c>
     </row>
     <row r="21">
@@ -1998,19 +1998,19 @@
         <v>3799</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9510</v>
+        <v>8656</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006176612078055222</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00155375986336686</v>
+        <v>0.001530671198235673</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01546199949292465</v>
+        <v>0.01407341078239543</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -2019,19 +2019,19 @@
         <v>22277</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14728</v>
+        <v>14163</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33179</v>
+        <v>33621</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03490429803245051</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02307599749212181</v>
+        <v>0.02219124741006296</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05198758757207125</v>
+        <v>0.05267998486963137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2040,19 +2040,19 @@
         <v>26075</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16965</v>
+        <v>17112</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37400</v>
+        <v>37515</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02080626618089381</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01353689341717132</v>
+        <v>0.01365408327260601</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02984256649790704</v>
+        <v>0.02993414423739568</v>
       </c>
     </row>
     <row r="23">
@@ -2069,19 +2069,19 @@
         <v>611228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>605517</v>
+        <v>606371</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>614071</v>
+        <v>614086</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9938233879219448</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9845380005070754</v>
+        <v>0.9859265892176046</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9984462401366331</v>
+        <v>0.9984693288017643</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>598</v>
@@ -2090,19 +2090,19 @@
         <v>615942</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>605040</v>
+        <v>604598</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>623491</v>
+        <v>624056</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9650957019675495</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9480124124279289</v>
+        <v>0.9473200151303685</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9769240025078786</v>
+        <v>0.977808752589937</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1192</v>
@@ -2111,19 +2111,19 @@
         <v>1227171</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1215846</v>
+        <v>1215731</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1236281</v>
+        <v>1236134</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9791937338191062</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9701574335020932</v>
+        <v>0.9700658557626043</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9864631065828289</v>
+        <v>0.9863459167273939</v>
       </c>
     </row>
     <row r="24">
@@ -2215,19 +2215,19 @@
         <v>27239</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>18269</v>
+        <v>18490</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39225</v>
+        <v>40106</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03662184989445592</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02456120329337966</v>
+        <v>0.02485924022658001</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05273688627301591</v>
+        <v>0.05392020115412609</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -2236,19 +2236,19 @@
         <v>37559</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26915</v>
+        <v>26387</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50988</v>
+        <v>50917</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04793643124143046</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03435220813255685</v>
+        <v>0.03367753117815951</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0650762849465867</v>
+        <v>0.06498549686902585</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -2257,19 +2257,19 @@
         <v>64798</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50178</v>
+        <v>51082</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>81651</v>
+        <v>81595</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04242625235394393</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03285408958232731</v>
+        <v>0.03344552759426269</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05346054602627862</v>
+        <v>0.05342412952046213</v>
       </c>
     </row>
     <row r="26">
@@ -2286,19 +2286,19 @@
         <v>716556</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>704570</v>
+        <v>703689</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>725526</v>
+        <v>725305</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9633781501055441</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.947263113726984</v>
+        <v>0.9460797988458736</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9754387967066203</v>
+        <v>0.9751407597734197</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>710</v>
@@ -2307,19 +2307,19 @@
         <v>745952</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>732523</v>
+        <v>732594</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>756596</v>
+        <v>757124</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9520635687585696</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9349237150534133</v>
+        <v>0.9350145031309741</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9656477918674429</v>
+        <v>0.9663224688218405</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1419</v>
@@ -2328,19 +2328,19 @@
         <v>1462508</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1445655</v>
+        <v>1445711</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1477128</v>
+        <v>1476224</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9575737476460561</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9465394539737215</v>
+        <v>0.9465758704795381</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9671459104176727</v>
+        <v>0.9665544724057374</v>
       </c>
     </row>
     <row r="27">
@@ -2432,19 +2432,19 @@
         <v>33826</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23369</v>
+        <v>23840</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>47067</v>
+        <v>45657</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01032374069643581</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007132202488256315</v>
+        <v>0.007276042163943992</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01436478432986588</v>
+        <v>0.01393444595280612</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>141</v>
@@ -2453,19 +2453,19 @@
         <v>145291</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>123413</v>
+        <v>122922</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>169572</v>
+        <v>168411</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04299579756607409</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03652129665724761</v>
+        <v>0.03637608336102161</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05018124486221819</v>
+        <v>0.04983772481903048</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>175</v>
@@ -2474,19 +2474,19 @@
         <v>179117</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>155424</v>
+        <v>153025</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>210080</v>
+        <v>205650</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02691172583257259</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02335187974376615</v>
+        <v>0.02299141027019526</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03156372192332656</v>
+        <v>0.03089810107108928</v>
       </c>
     </row>
     <row r="29">
@@ -2503,19 +2503,19 @@
         <v>3242717</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3229476</v>
+        <v>3230886</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3253174</v>
+        <v>3252703</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9896762593035642</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9856352156701335</v>
+        <v>0.986065554047194</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9928677975117436</v>
+        <v>0.9927239578360562</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3156</v>
@@ -2524,19 +2524,19 @@
         <v>3233906</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3209625</v>
+        <v>3210786</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3255784</v>
+        <v>3256275</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9570042024339259</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9498187551377812</v>
+        <v>0.9501622751809693</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9634787033427523</v>
+        <v>0.9636239166389783</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6336</v>
@@ -2545,19 +2545,19 @@
         <v>6476624</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6445661</v>
+        <v>6450091</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6500317</v>
+        <v>6502716</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9730882741674274</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9684362780766735</v>
+        <v>0.9691018989289107</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9766481202562338</v>
+        <v>0.9770085897298048</v>
       </c>
     </row>
     <row r="30">
@@ -2906,19 +2906,19 @@
         <v>12472</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6361</v>
+        <v>6398</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21913</v>
+        <v>21293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04342087534975531</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02214536893043936</v>
+        <v>0.0222722223258635</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07628538149742242</v>
+        <v>0.07412820633473793</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2927,19 +2927,19 @@
         <v>12472</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6329</v>
+        <v>6441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22503</v>
+        <v>23208</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02146791167180559</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01089355294386963</v>
+        <v>0.01108643845774398</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03873341465606237</v>
+        <v>0.03994612374655834</v>
       </c>
     </row>
     <row r="5">
@@ -2969,19 +2969,19 @@
         <v>274773</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265332</v>
+        <v>265952</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>280884</v>
+        <v>280847</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9565791246502447</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.923714618502578</v>
+        <v>0.9258717936652621</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9778546310695607</v>
+        <v>0.9777277776741364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>526</v>
@@ -2990,19 +2990,19 @@
         <v>568508</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>558477</v>
+        <v>557772</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>574651</v>
+        <v>574539</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9785320883281944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9612665853439375</v>
+        <v>0.9600538762534417</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9891064470561303</v>
+        <v>0.9889135615422561</v>
       </c>
     </row>
     <row r="6">
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11591</v>
+        <v>12853</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006403203565994869</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02292948099617916</v>
+        <v>0.02542531581146203</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -3115,19 +3115,19 @@
         <v>14465</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7213</v>
+        <v>7607</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24285</v>
+        <v>25111</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02767567611946013</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01380051499611371</v>
+        <v>0.01455505913571542</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04646522129980534</v>
+        <v>0.04804445577667848</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -3136,19 +3136,19 @@
         <v>17702</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10264</v>
+        <v>9804</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29865</v>
+        <v>28601</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01721663553760953</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009982283364341139</v>
+        <v>0.009535646475856772</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02904670578006096</v>
+        <v>0.02781739619452563</v>
       </c>
     </row>
     <row r="8">
@@ -3165,7 +3165,7 @@
         <v>502290</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493936</v>
+        <v>492674</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>505527</v>
@@ -3174,7 +3174,7 @@
         <v>0.9935967964340051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9770705190038207</v>
+        <v>0.9745746841885387</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3186,19 +3186,19 @@
         <v>508191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>498371</v>
+        <v>497545</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>515443</v>
+        <v>515049</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9723243238805399</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9535347787001947</v>
+        <v>0.9519555442233216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9861994850038864</v>
+        <v>0.9854449408642846</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>937</v>
@@ -3207,19 +3207,19 @@
         <v>1010482</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>998319</v>
+        <v>999583</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1017920</v>
+        <v>1018380</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9827833644623905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9709532942199393</v>
+        <v>0.9721826038054752</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9900177166356589</v>
+        <v>0.9904643535241433</v>
       </c>
     </row>
     <row r="9">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5078</v>
+        <v>5041</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003107057654766444</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01567173341130597</v>
+        <v>0.01555491455678491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3332,19 +3332,19 @@
         <v>10307</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4966</v>
+        <v>5089</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19180</v>
+        <v>18816</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03022485629971264</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01456157255883143</v>
+        <v>0.01492407770124093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05624308854327096</v>
+        <v>0.05517661850301528</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -3353,19 +3353,19 @@
         <v>11314</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5324</v>
+        <v>5925</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21098</v>
+        <v>19639</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01701201113440923</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008005435104592527</v>
+        <v>0.008908758992220343</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03172302123250306</v>
+        <v>0.02952914681966176</v>
       </c>
     </row>
     <row r="11">
@@ -3382,7 +3382,7 @@
         <v>323039</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>318968</v>
+        <v>319005</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>324046</v>
@@ -3391,7 +3391,7 @@
         <v>0.9968929423452335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.984328266588694</v>
+        <v>0.9844450854432152</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3403,19 +3403,19 @@
         <v>330713</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>321840</v>
+        <v>322204</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>336054</v>
+        <v>335931</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9697751437002874</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9437569114567291</v>
+        <v>0.9448233814969846</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9854384274411686</v>
+        <v>0.9850759222987591</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>626</v>
@@ -3424,19 +3424,19 @@
         <v>653752</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>643968</v>
+        <v>645427</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>659742</v>
+        <v>659141</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9829879888655908</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.968276978767497</v>
+        <v>0.9704708531803383</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9919945648954075</v>
+        <v>0.9910912410077797</v>
       </c>
     </row>
     <row r="12">
@@ -3541,19 +3541,19 @@
         <v>29968</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20564</v>
+        <v>20685</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42002</v>
+        <v>42220</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07704952416122116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05287108215387377</v>
+        <v>0.05318169367487138</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1079886870315428</v>
+        <v>0.1085495949112265</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -3562,19 +3562,19 @@
         <v>29968</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20386</v>
+        <v>20640</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42448</v>
+        <v>43330</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03928062464506782</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02672016412499422</v>
+        <v>0.02705304957886868</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0556380689147919</v>
+        <v>0.05679455823437592</v>
       </c>
     </row>
     <row r="14">
@@ -3604,19 +3604,19 @@
         <v>358983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>346949</v>
+        <v>346731</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368387</v>
+        <v>368266</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9229504758387789</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8920113129684575</v>
+        <v>0.8914504050887735</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9471289178461266</v>
+        <v>0.9468183063251288</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>686</v>
@@ -3625,19 +3625,19 @@
         <v>732965</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>720485</v>
+        <v>719603</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>742547</v>
+        <v>742293</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9607193753549322</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9443619310852081</v>
+        <v>0.9432054417656244</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9732798358750059</v>
+        <v>0.9729469504211313</v>
       </c>
     </row>
     <row r="15">
@@ -3742,19 +3742,19 @@
         <v>8000</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3233</v>
+        <v>3972</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15251</v>
+        <v>15343</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03643199487145367</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01472185580354228</v>
+        <v>0.01808866230268178</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06945111895604687</v>
+        <v>0.06987106126677223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -3763,19 +3763,19 @@
         <v>8000</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3094</v>
+        <v>3150</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14147</v>
+        <v>14564</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01850988169418553</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00715780152084091</v>
+        <v>0.007287001631781931</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03273276697258877</v>
+        <v>0.03369569891691095</v>
       </c>
     </row>
     <row r="17">
@@ -3805,19 +3805,19 @@
         <v>211591</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204340</v>
+        <v>204248</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216358</v>
+        <v>215619</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9635680051285463</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9305488810439529</v>
+        <v>0.9301289387332278</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9852781441964575</v>
+        <v>0.9819113376973182</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>400</v>
@@ -3826,19 +3826,19 @@
         <v>424209</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>418062</v>
+        <v>417645</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429115</v>
+        <v>429059</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9814901183058145</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9672672330274112</v>
+        <v>0.9663043010830896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9928421984791591</v>
+        <v>0.9927129983682181</v>
       </c>
     </row>
     <row r="18">
@@ -3943,19 +3943,19 @@
         <v>6212</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2126</v>
+        <v>2068</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12437</v>
+        <v>13404</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02233630852526538</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007643392075947637</v>
+        <v>0.007435619377381365</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04472344945256302</v>
+        <v>0.04819953731561919</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3964,19 +3964,19 @@
         <v>6212</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2196</v>
+        <v>2201</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13411</v>
+        <v>12759</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01125139289559378</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00397811140219302</v>
+        <v>0.00398729260106285</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02429211492358522</v>
+        <v>0.0231113782980257</v>
       </c>
     </row>
     <row r="20">
@@ -4006,19 +4006,19 @@
         <v>271884</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>265659</v>
+        <v>264692</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>275970</v>
+        <v>276028</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9776636914747346</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.955276550547437</v>
+        <v>0.9518004626843809</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9923566079240523</v>
+        <v>0.9925643806226186</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>523</v>
@@ -4027,19 +4027,19 @@
         <v>545865</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>538666</v>
+        <v>539318</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>549881</v>
+        <v>549876</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9887486071044063</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9757078850764149</v>
+        <v>0.9768886217019755</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.996021888597807</v>
+        <v>0.9960127073989372</v>
       </c>
     </row>
     <row r="21">
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5421</v>
+        <v>5277</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001615293180865784</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.008179336572091524</v>
+        <v>0.007962419978704139</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -4152,19 +4152,19 @@
         <v>30975</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20876</v>
+        <v>20440</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43451</v>
+        <v>42449</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0446420309846104</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03008728478237084</v>
+        <v>0.02945920965131007</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06262225277552286</v>
+        <v>0.0611789688134425</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -4173,19 +4173,19 @@
         <v>32046</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22369</v>
+        <v>22546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>46088</v>
+        <v>45389</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02362128417346048</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01648836578315787</v>
+        <v>0.01661928759682269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03397213432667182</v>
+        <v>0.03345718604508464</v>
       </c>
     </row>
     <row r="23">
@@ -4202,7 +4202,7 @@
         <v>661717</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>657367</v>
+        <v>657511</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>662788</v>
@@ -4211,7 +4211,7 @@
         <v>0.9983847068191343</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9918206634279084</v>
+        <v>0.9920375800212959</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4223,19 +4223,19 @@
         <v>662878</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>650402</v>
+        <v>651404</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>672977</v>
+        <v>673413</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9553579690153896</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9373777472244772</v>
+        <v>0.9388210311865575</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9699127152176291</v>
+        <v>0.9705407903486899</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1224</v>
@@ -4244,19 +4244,19 @@
         <v>1324595</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1310553</v>
+        <v>1311252</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1334272</v>
+        <v>1334095</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9763787158265396</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9660278656733279</v>
+        <v>0.9665428139549151</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9835116342168421</v>
+        <v>0.9833807124031773</v>
       </c>
     </row>
     <row r="24">
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5251</v>
+        <v>5313</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00134848949051476</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.006740221607346285</v>
+        <v>0.006819884013513841</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -4369,19 +4369,19 @@
         <v>29965</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19568</v>
+        <v>21073</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42675</v>
+        <v>42415</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03642824110264978</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02378873450130217</v>
+        <v>0.02561823157448551</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05188003995934449</v>
+        <v>0.05156372278778894</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -4390,19 +4390,19 @@
         <v>31016</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20783</v>
+        <v>21528</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43409</v>
+        <v>44977</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0193645053928046</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01297547102393197</v>
+        <v>0.01344073862679769</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02710203092122984</v>
+        <v>0.02808144976445637</v>
       </c>
     </row>
     <row r="26">
@@ -4419,7 +4419,7 @@
         <v>778047</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>773847</v>
+        <v>773785</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>779098</v>
@@ -4428,7 +4428,7 @@
         <v>0.9986515105094852</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9932597783926537</v>
+        <v>0.9931801159864861</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -4440,19 +4440,19 @@
         <v>792613</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>779903</v>
+        <v>780163</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>803010</v>
+        <v>801505</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9635717588973503</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9481199600406556</v>
+        <v>0.9484362772122111</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9762112654986979</v>
+        <v>0.9743817684255145</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1445</v>
@@ -4461,19 +4461,19 @@
         <v>1570660</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1558267</v>
+        <v>1556699</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1580893</v>
+        <v>1580148</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9806354946071955</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.97289796907877</v>
+        <v>0.9719185502355436</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9870245289760678</v>
+        <v>0.986559261373202</v>
       </c>
     </row>
     <row r="27">
@@ -4565,19 +4565,19 @@
         <v>6365</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2121</v>
+        <v>2071</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15978</v>
+        <v>15085</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001857980992341845</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0006192568244538974</v>
+        <v>0.0006046514020580281</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.004663975325631471</v>
+        <v>0.004403482314042685</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>131</v>
@@ -4586,19 +4586,19 @@
         <v>142365</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>121090</v>
+        <v>121671</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>167221</v>
+        <v>170056</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04005776929663026</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03407161122188817</v>
+        <v>0.03423517920016689</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04705158672073516</v>
+        <v>0.0478492344442449</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>136</v>
@@ -4607,19 +4607,19 @@
         <v>148730</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>125193</v>
+        <v>124705</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>175174</v>
+        <v>173763</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02130872822982653</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01793659854298748</v>
+        <v>0.01786669660851987</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0250974546837845</v>
+        <v>0.02489529401307068</v>
       </c>
     </row>
     <row r="29">
@@ -4636,19 +4636,19 @@
         <v>3419411</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3409798</v>
+        <v>3410691</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3423655</v>
+        <v>3423705</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9981420190076582</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9953360246743689</v>
+        <v>0.9955965176859574</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.999380743175546</v>
+        <v>0.999395348597942</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3164</v>
@@ -4657,19 +4657,19 @@
         <v>3411625</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3386769</v>
+        <v>3383934</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3432900</v>
+        <v>3432319</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9599422307033697</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9529484132792652</v>
+        <v>0.9521507655557551</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9659283887781119</v>
+        <v>0.9657648207998332</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6367</v>
@@ -4678,19 +4678,19 @@
         <v>6831036</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6804592</v>
+        <v>6806003</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6854573</v>
+        <v>6855061</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9786912717701735</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9749025453162155</v>
+        <v>0.9751047059869293</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9820634014570125</v>
+        <v>0.9821333033914801</v>
       </c>
     </row>
     <row r="30">
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4413</v>
+        <v>3648</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002728512760318335</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01502202868179994</v>
+        <v>0.01241788731333252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -5047,19 +5047,19 @@
         <v>12687</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6555</v>
+        <v>6581</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20825</v>
+        <v>21375</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04394425776764692</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02270590299644817</v>
+        <v>0.0227937944550257</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07213207417694939</v>
+        <v>0.07403645596646408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -5068,19 +5068,19 @@
         <v>13488</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7684</v>
+        <v>7299</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21888</v>
+        <v>21764</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02315743061773213</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01319268161250177</v>
+        <v>0.01253196283714439</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03757841286777738</v>
+        <v>0.03736611095860586</v>
       </c>
     </row>
     <row r="5">
@@ -5097,7 +5097,7 @@
         <v>292959</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>289348</v>
+        <v>290113</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>293761</v>
@@ -5106,7 +5106,7 @@
         <v>0.9972714872396816</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9849779713182015</v>
+        <v>0.9875821126866667</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5118,19 +5118,19 @@
         <v>276016</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>267878</v>
+        <v>267328</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>282148</v>
+        <v>282122</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9560557422323531</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9278679258230507</v>
+        <v>0.9259635440335354</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9772940970035519</v>
+        <v>0.9772062055449742</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>530</v>
@@ -5139,19 +5139,19 @@
         <v>568976</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>560576</v>
+        <v>560700</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>574780</v>
+        <v>575165</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9768425693822679</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9624215871322223</v>
+        <v>0.9626338890413941</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.986807318387498</v>
+        <v>0.9874680371628555</v>
       </c>
     </row>
     <row r="6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4084</v>
+        <v>3708</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001474645944535166</v>
@@ -5255,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008126437741609663</v>
+        <v>0.007377415251667696</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -5264,19 +5264,19 @@
         <v>17750</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10482</v>
+        <v>11039</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29924</v>
+        <v>28563</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03393292378108131</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02003869423603975</v>
+        <v>0.02110332071250294</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05720693443914164</v>
+        <v>0.05460532456982852</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -5285,19 +5285,19 @@
         <v>18491</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10819</v>
+        <v>10404</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29121</v>
+        <v>27992</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01802829566539071</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01054813386325672</v>
+        <v>0.01014394884814951</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02839199306403787</v>
+        <v>0.02729179578292125</v>
       </c>
     </row>
     <row r="8">
@@ -5314,7 +5314,7 @@
         <v>501834</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>498491</v>
+        <v>498867</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>502575</v>
@@ -5323,7 +5323,7 @@
         <v>0.9985253540554648</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9918735622583903</v>
+        <v>0.9926225847483323</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -5335,19 +5335,19 @@
         <v>505334</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>493160</v>
+        <v>494521</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>512602</v>
+        <v>512045</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9660670762189187</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9427930655608583</v>
+        <v>0.9453946754301714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.97996130576396</v>
+        <v>0.978896679287497</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>943</v>
@@ -5356,19 +5356,19 @@
         <v>1007168</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>996538</v>
+        <v>997667</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1014840</v>
+        <v>1015255</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9819717043346093</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9716080069359622</v>
+        <v>0.9727082042170789</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9894518661367433</v>
+        <v>0.9898560511518505</v>
       </c>
     </row>
     <row r="9">
@@ -5473,19 +5473,19 @@
         <v>5261</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1837</v>
+        <v>1256</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13948</v>
+        <v>14173</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01564307136388474</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005461859522385158</v>
+        <v>0.003733197576246784</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04147329646807744</v>
+        <v>0.04214421896098595</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -5494,19 +5494,19 @@
         <v>5261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14535</v>
+        <v>12779</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008033462500828419</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001889003831740065</v>
+        <v>0.001892209102512275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02219446061046763</v>
+        <v>0.01951376078769611</v>
       </c>
     </row>
     <row r="11">
@@ -5536,19 +5536,19 @@
         <v>331048</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>322361</v>
+        <v>322136</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>334472</v>
+        <v>335053</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9843569286361152</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.958526703531923</v>
+        <v>0.9578557810390141</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9945381404776149</v>
+        <v>0.9962668024237533</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>663</v>
@@ -5557,19 +5557,19 @@
         <v>649613</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>640339</v>
+        <v>642095</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653637</v>
+        <v>653635</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9919665374991716</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9778055393895324</v>
+        <v>0.9804862392123038</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9981109961682599</v>
+        <v>0.9981077908974877</v>
       </c>
     </row>
     <row r="12">
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5631</v>
+        <v>6087</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004940332020737843</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0152204587921312</v>
+        <v>0.01645375184185491</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -5682,19 +5682,19 @@
         <v>24953</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16228</v>
+        <v>15692</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39051</v>
+        <v>39836</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06443027044072011</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04190239448937666</v>
+        <v>0.040519347675769</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1008333887292235</v>
+        <v>0.1028610565967192</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -5703,19 +5703,19 @@
         <v>26780</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16968</v>
+        <v>16989</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40460</v>
+        <v>40149</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03536559867890959</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02240812713805556</v>
+        <v>0.0224352765534878</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05343038910860307</v>
+        <v>0.05301951660822322</v>
       </c>
     </row>
     <row r="14">
@@ -5732,7 +5732,7 @@
         <v>368136</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>364333</v>
+        <v>363877</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>369964</v>
@@ -5741,7 +5741,7 @@
         <v>0.9950596679792622</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9847795412078691</v>
+        <v>0.9835462481581452</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5753,19 +5753,19 @@
         <v>362330</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>348232</v>
+        <v>347447</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>371055</v>
+        <v>371591</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9355697295592799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8991666112707766</v>
+        <v>0.8971389434032808</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9580976055106235</v>
+        <v>0.959480652324231</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>690</v>
@@ -5774,19 +5774,19 @@
         <v>730467</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>716787</v>
+        <v>717098</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>740279</v>
+        <v>740258</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9646344013210904</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9465696108913969</v>
+        <v>0.9469804833917768</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9775918728619445</v>
+        <v>0.9775647234465121</v>
       </c>
     </row>
     <row r="15">
@@ -5894,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7502</v>
+        <v>8514</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00988620253208307</v>
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03432242325389698</v>
+        <v>0.03895233994567972</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6695</v>
+        <v>6617</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005027815586575863</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01557720034894605</v>
+        <v>0.01539577595977277</v>
       </c>
     </row>
     <row r="17">
@@ -5954,7 +5954,7 @@
         <v>216426</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211085</v>
+        <v>210073</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>218587</v>
@@ -5963,7 +5963,7 @@
         <v>0.9901137974679169</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9656775767461031</v>
+        <v>0.961047660054321</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>427647</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>423113</v>
+        <v>423191</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>429808</v>
@@ -5984,7 +5984,7 @@
         <v>0.9949721844134242</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9844227996510538</v>
+        <v>0.9846042240402273</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7554</v>
+        <v>8833</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009303145669250428</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02870914499969259</v>
+        <v>0.03357084614239342</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -6100,19 +6100,19 @@
         <v>6211</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2197</v>
+        <v>2941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12445</v>
+        <v>13227</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02274192005553607</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00804523437240867</v>
+        <v>0.01076948612930346</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04556753920879274</v>
+        <v>0.0484294578569077</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -6121,19 +6121,19 @@
         <v>8659</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4029</v>
+        <v>4217</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15893</v>
+        <v>16675</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01614773869508577</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007514293402193273</v>
+        <v>0.007864002072116268</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02963710776978058</v>
+        <v>0.0310960748848679</v>
       </c>
     </row>
     <row r="20">
@@ -6150,7 +6150,7 @@
         <v>260675</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255569</v>
+        <v>254290</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -6159,7 +6159,7 @@
         <v>0.9906968543307496</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9712908550003073</v>
+        <v>0.966429153857606</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -6171,19 +6171,19 @@
         <v>266904</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260670</v>
+        <v>259888</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>270918</v>
+        <v>270174</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9772580799444639</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9544324607912072</v>
+        <v>0.9515705421430921</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9919547656275913</v>
+        <v>0.9892305138706965</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>514</v>
@@ -6192,19 +6192,19 @@
         <v>527579</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>520345</v>
+        <v>519563</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>532209</v>
+        <v>532021</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9838522613049142</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9703628922302194</v>
+        <v>0.968903925115132</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9924857065978067</v>
+        <v>0.9921359979278838</v>
       </c>
     </row>
     <row r="21">
@@ -6296,19 +6296,19 @@
         <v>5033</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1785</v>
+        <v>1813</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10876</v>
+        <v>11471</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007665507169620112</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002718765428615144</v>
+        <v>0.002760676320573861</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0165648956074301</v>
+        <v>0.01747118913445341</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -6317,19 +6317,19 @@
         <v>31832</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21370</v>
+        <v>21016</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44911</v>
+        <v>44121</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04604697285728391</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03091360138673038</v>
+        <v>0.03040098943922571</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06496625763694044</v>
+        <v>0.06382362501293969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -6338,19 +6338,19 @@
         <v>36865</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24359</v>
+        <v>25476</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50055</v>
+        <v>51423</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0273508116448343</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01807234622968206</v>
+        <v>0.01890101113027508</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03713716927806803</v>
+        <v>0.03815167092830585</v>
       </c>
     </row>
     <row r="23">
@@ -6367,19 +6367,19 @@
         <v>651525</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>645682</v>
+        <v>645087</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>654773</v>
+        <v>654745</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9923344928303799</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9834351043925699</v>
+        <v>0.9825288108655466</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9972812345713848</v>
+        <v>0.9972393236794261</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>618</v>
@@ -6388,19 +6388,19 @@
         <v>659462</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>646383</v>
+        <v>647173</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>669924</v>
+        <v>670278</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9539530271427161</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9350337423630593</v>
+        <v>0.9361763749870602</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9690863986132695</v>
+        <v>0.9695990105607742</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1193</v>
@@ -6409,19 +6409,19 @@
         <v>1310987</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1297797</v>
+        <v>1296429</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1323493</v>
+        <v>1322376</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9726491883551657</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.962862830721932</v>
+        <v>0.9618483290716943</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.981927653770318</v>
+        <v>0.9810989888697249</v>
       </c>
     </row>
     <row r="24">
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6254</v>
+        <v>4646</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001182707560010238</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.008032452164378466</v>
+        <v>0.005967799840997003</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -6534,19 +6534,19 @@
         <v>21309</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13802</v>
+        <v>13150</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34034</v>
+        <v>32852</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0257921839851226</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01670590531253087</v>
+        <v>0.0159171457968952</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04119448447512568</v>
+        <v>0.03976466888314786</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -6555,19 +6555,19 @@
         <v>22229</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>13432</v>
+        <v>13204</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34680</v>
+        <v>33040</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0138523055498103</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008369960239689419</v>
+        <v>0.008227948953899656</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0216110445652193</v>
+        <v>0.02058902545292904</v>
       </c>
     </row>
     <row r="26">
@@ -6584,7 +6584,7 @@
         <v>777662</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>772329</v>
+        <v>773937</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>778583</v>
@@ -6593,7 +6593,7 @@
         <v>0.9988172924399897</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9919675478356217</v>
+        <v>0.9940322001590031</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -6605,19 +6605,19 @@
         <v>804858</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>792133</v>
+        <v>793315</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>812365</v>
+        <v>813017</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9742078160148774</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9588055155248741</v>
+        <v>0.9602353311168521</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9832940946874691</v>
+        <v>0.9840828542031048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1485</v>
@@ -6626,19 +6626,19 @@
         <v>1582521</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1570070</v>
+        <v>1571710</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1591318</v>
+        <v>1591546</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9861476944501897</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9783889554347807</v>
+        <v>0.9794109745470707</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9916300397603103</v>
+        <v>0.9917720510461003</v>
       </c>
     </row>
     <row r="27">
@@ -6730,19 +6730,19 @@
         <v>11772</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6354</v>
+        <v>6235</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20127</v>
+        <v>21454</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.00346810221009992</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.001872001500148256</v>
+        <v>0.001836844618927144</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.00592957333690008</v>
+        <v>0.006320363296015131</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>106</v>
@@ -6751,19 +6751,19 @@
         <v>122163</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>101654</v>
+        <v>102000</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>145094</v>
+        <v>148725</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03446511985398436</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02867905668324969</v>
+        <v>0.02877663781306042</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04093456380757648</v>
+        <v>0.04195886792158163</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>118</v>
@@ -6772,19 +6772,19 @@
         <v>133935</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>109891</v>
+        <v>112935</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>158719</v>
+        <v>159171</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01930207476147901</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01583692324514779</v>
+        <v>0.01627558797859439</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02287381985863342</v>
+        <v>0.0229389285757035</v>
       </c>
     </row>
     <row r="29">
@@ -6801,19 +6801,19 @@
         <v>3382578</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3374223</v>
+        <v>3372896</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3387996</v>
+        <v>3388115</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9965318977899</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9940704266630997</v>
+        <v>0.993679636703985</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9981279984998517</v>
+        <v>0.9981631553810729</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3232</v>
@@ -6822,19 +6822,19 @@
         <v>3422379</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3399448</v>
+        <v>3395817</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3442888</v>
+        <v>3442542</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9655348801460156</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9590654361924235</v>
+        <v>0.9580411320784191</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9713209433167502</v>
+        <v>0.9712233621869397</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6451</v>
@@ -6843,19 +6843,19 @@
         <v>6804957</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6780173</v>
+        <v>6779721</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6829001</v>
+        <v>6825957</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.980697925238521</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9771261801413664</v>
+        <v>0.9770610714242964</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9841630767548518</v>
+        <v>0.9837244120214055</v>
       </c>
     </row>
     <row r="30">
@@ -7191,19 +7191,19 @@
         <v>2342</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6019</v>
+        <v>6814</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.007346805520860805</v>
+        <v>0.007346805520860807</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00209594417768843</v>
+        <v>0.002099819739042477</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01887766372465962</v>
+        <v>0.02136962404680942</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -7212,19 +7212,19 @@
         <v>9697</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6071</v>
+        <v>6130</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15341</v>
+        <v>15245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03068108925903516</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01920927241083247</v>
+        <v>0.01939589856861747</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04853737941954141</v>
+        <v>0.04823356695509583</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -7233,19 +7233,19 @@
         <v>12040</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7524</v>
+        <v>7939</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18679</v>
+        <v>19057</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01896277639475062</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01185093072535549</v>
+        <v>0.01250438853780328</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02941999581996869</v>
+        <v>0.0300151314623757</v>
       </c>
     </row>
     <row r="5">
@@ -7262,19 +7262,19 @@
         <v>316503</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>312826</v>
+        <v>312031</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>318177</v>
+        <v>318175</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.992653194479139</v>
+        <v>0.9926531944791392</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9811223362753403</v>
+        <v>0.9786303759531908</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9979040558223116</v>
+        <v>0.9979001802609577</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>519</v>
@@ -7283,19 +7283,19 @@
         <v>306364</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>300720</v>
+        <v>300816</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>309990</v>
+        <v>309931</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9693189107409649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9514626205804585</v>
+        <v>0.9517664330449042</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9807907275891675</v>
+        <v>0.9806041014313824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>847</v>
@@ -7304,19 +7304,19 @@
         <v>622866</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>616227</v>
+        <v>615849</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>627382</v>
+        <v>626967</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9810372236052494</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9705800041800311</v>
+        <v>0.9699848685376242</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9881490692746445</v>
+        <v>0.9874956114621966</v>
       </c>
     </row>
     <row r="6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4804</v>
+        <v>4771</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00177733561184805</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009070586582808031</v>
+        <v>0.00900844599411125</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -7429,19 +7429,19 @@
         <v>17467</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11831</v>
+        <v>11751</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25015</v>
+        <v>24636</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03232744774872676</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02189648735516241</v>
+        <v>0.02174811285831366</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04629778911112774</v>
+        <v>0.04559711115477605</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -7450,19 +7450,19 @@
         <v>18408</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12984</v>
+        <v>12509</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26727</v>
+        <v>25815</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01720430905592513</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01213522149210314</v>
+        <v>0.01169064973350555</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02497901448795825</v>
+        <v>0.02412733000122692</v>
       </c>
     </row>
     <row r="8">
@@ -7479,16 +7479,16 @@
         <v>528719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>524856</v>
+        <v>524889</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>529660</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9982226643881519</v>
+        <v>0.9982226643881521</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9909294134171919</v>
+        <v>0.9909915540058887</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -7500,19 +7500,19 @@
         <v>522834</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>515286</v>
+        <v>515665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>528470</v>
+        <v>528550</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9676725522512732</v>
+        <v>0.9676725522512731</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9537022108888722</v>
+        <v>0.9544028888452242</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9781035126448375</v>
+        <v>0.9782518871416862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1061</v>
@@ -7521,19 +7521,19 @@
         <v>1051552</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1043233</v>
+        <v>1044145</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1056976</v>
+        <v>1057451</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9827956909440748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9750209855120417</v>
+        <v>0.975872669998773</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9878647785078966</v>
+        <v>0.9883093502664946</v>
       </c>
     </row>
     <row r="9">
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4587</v>
+        <v>4545</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002858096329529514</v>
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01454406768929974</v>
+        <v>0.01441172976425426</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -7646,19 +7646,19 @@
         <v>16713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11439</v>
+        <v>11530</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23667</v>
+        <v>23491</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04689596551732251</v>
+        <v>0.0468959655173225</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03209776431213129</v>
+        <v>0.03235266044142208</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06640943653127647</v>
+        <v>0.06591566135679099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -7667,19 +7667,19 @@
         <v>17614</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12310</v>
+        <v>12053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24521</v>
+        <v>24850</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02622092808410611</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01832519566165303</v>
+        <v>0.0179430768028867</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03650274089093461</v>
+        <v>0.03699286425537056</v>
       </c>
     </row>
     <row r="11">
@@ -7696,7 +7696,7 @@
         <v>314480</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>310794</v>
+        <v>310836</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>315381</v>
@@ -7705,7 +7705,7 @@
         <v>0.9971419036704704</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9854559323107004</v>
+        <v>0.9855882702357457</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -7717,19 +7717,19 @@
         <v>339668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>332714</v>
+        <v>332890</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>344942</v>
+        <v>344851</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9531040344826774</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9335905634687234</v>
+        <v>0.9340843386432092</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9679022356878686</v>
+        <v>0.9676473395585782</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>863</v>
@@ -7738,19 +7738,19 @@
         <v>654149</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>647242</v>
+        <v>646913</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>659453</v>
+        <v>659710</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.973779071915894</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9634972591090654</v>
+        <v>0.9630071357446293</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9816748043383468</v>
+        <v>0.9820569231971132</v>
       </c>
     </row>
     <row r="12">
@@ -7842,19 +7842,19 @@
         <v>7824</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2875</v>
+        <v>2890</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25900</v>
+        <v>29105</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02096677564118082</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007704861461111321</v>
+        <v>0.00774516869846359</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0694098658206809</v>
+        <v>0.07799950583605374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -7863,19 +7863,19 @@
         <v>33956</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26356</v>
+        <v>26095</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45211</v>
+        <v>44643</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08047150950442168</v>
+        <v>0.0804715095044217</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06246131178721714</v>
+        <v>0.06184164736148846</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1071459744171994</v>
+        <v>0.105797875086782</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -7884,19 +7884,19 @@
         <v>41780</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32647</v>
+        <v>30862</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56860</v>
+        <v>56132</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05254581194511271</v>
+        <v>0.05254581194511269</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04106014523505953</v>
+        <v>0.03881447965017016</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07151237864055776</v>
+        <v>0.07059736891528119</v>
       </c>
     </row>
     <row r="14">
@@ -7913,19 +7913,19 @@
         <v>365321</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>347245</v>
+        <v>344040</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370270</v>
+        <v>370255</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9790332243588191</v>
+        <v>0.9790332243588192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9305901341793198</v>
+        <v>0.9220004941639459</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9922951385388887</v>
+        <v>0.9922548313015365</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>528</v>
@@ -7934,19 +7934,19 @@
         <v>388005</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>376750</v>
+        <v>377318</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>395605</v>
+        <v>395866</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9195284904955783</v>
+        <v>0.9195284904955784</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8928540255828005</v>
+        <v>0.8942021249132177</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9375386882127827</v>
+        <v>0.9381583526385114</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>813</v>
@@ -7955,19 +7955,19 @@
         <v>753327</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>738247</v>
+        <v>738975</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>762460</v>
+        <v>764245</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9474541880548872</v>
+        <v>0.9474541880548871</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9284876213594423</v>
+        <v>0.9294026310847188</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9589398547649405</v>
+        <v>0.9611855203498297</v>
       </c>
     </row>
     <row r="15">
@@ -8059,19 +8059,19 @@
         <v>1602</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4393</v>
+        <v>4539</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007790695899735007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002219340316486588</v>
+        <v>0.002314936176975994</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02136090331876488</v>
+        <v>0.02207203045337312</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -8080,19 +8080,19 @@
         <v>10754</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7322</v>
+        <v>7358</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15484</v>
+        <v>15116</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04741196881073235</v>
+        <v>0.04741196881073234</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03228070751505371</v>
+        <v>0.0324394892302094</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06826574067090439</v>
+        <v>0.06664105145182772</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -8101,19 +8101,19 @@
         <v>12356</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8567</v>
+        <v>8413</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17182</v>
+        <v>17142</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02857052770212713</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01980859461050609</v>
+        <v>0.01945148271476439</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03972909061131945</v>
+        <v>0.03963623090314254</v>
       </c>
     </row>
     <row r="17">
@@ -8130,19 +8130,19 @@
         <v>204063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201272</v>
+        <v>201126</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205209</v>
+        <v>205189</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.992209304100265</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9786390966812351</v>
+        <v>0.9779279695466269</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9977806596835134</v>
+        <v>0.997685063823024</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>463</v>
@@ -8151,19 +8151,19 @@
         <v>216069</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211339</v>
+        <v>211707</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>219501</v>
+        <v>219465</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9525880311892676</v>
+        <v>0.9525880311892675</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9317342593290956</v>
+        <v>0.9333589485481724</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9677192924849463</v>
+        <v>0.9675605107697905</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>739</v>
@@ -8172,19 +8172,19 @@
         <v>420132</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>415306</v>
+        <v>415346</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423921</v>
+        <v>424075</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9714294722978728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9602709093886804</v>
+        <v>0.9603637690968576</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9801914053894938</v>
+        <v>0.9805485172852357</v>
       </c>
     </row>
     <row r="18">
@@ -8276,19 +8276,19 @@
         <v>4293</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1629</v>
+        <v>1647</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8553</v>
+        <v>8409</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01588952952488673</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006028535675632284</v>
+        <v>0.006096333459146725</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03165419327269548</v>
+        <v>0.03112192119301473</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -8297,19 +8297,19 @@
         <v>16188</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11906</v>
+        <v>11499</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22373</v>
+        <v>21604</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06152958723655157</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04525203561154897</v>
+        <v>0.04370689426196924</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08503728489505026</v>
+        <v>0.08211359398109358</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -8318,19 +8318,19 @@
         <v>20482</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15154</v>
+        <v>14838</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27687</v>
+        <v>27817</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03840531731618806</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02841458188739178</v>
+        <v>0.02782268277071519</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05191502292956809</v>
+        <v>0.05215926711509349</v>
       </c>
     </row>
     <row r="20">
@@ -8347,19 +8347,19 @@
         <v>265916</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261656</v>
+        <v>261800</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268580</v>
+        <v>268562</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9841104704751131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9683458067273044</v>
+        <v>0.9688780788069863</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9939714643243679</v>
+        <v>0.993903666540854</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>421</v>
@@ -8368,19 +8368,19 @@
         <v>246911</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240726</v>
+        <v>241495</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>251193</v>
+        <v>251600</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9384704127634484</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9149627151049495</v>
+        <v>0.9178864060189063</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9547479643884509</v>
+        <v>0.9562931057380303</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>784</v>
@@ -8389,19 +8389,19 @@
         <v>512827</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>505622</v>
+        <v>505492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>518155</v>
+        <v>518471</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9615946826838121</v>
+        <v>0.961594682683812</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9480849770704318</v>
+        <v>0.9478407328849066</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9715854181126081</v>
+        <v>0.9721773172292847</v>
       </c>
     </row>
     <row r="21">
@@ -8493,19 +8493,19 @@
         <v>5100</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2023</v>
+        <v>1815</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12286</v>
+        <v>10523</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.007140184065605888</v>
+        <v>0.007140184065605886</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002831904733180836</v>
+        <v>0.002540878967462798</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01719965969915584</v>
+        <v>0.01473181481126694</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -8514,19 +8514,19 @@
         <v>43240</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33247</v>
+        <v>33033</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54828</v>
+        <v>55272</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05645562458471495</v>
+        <v>0.05645562458471496</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04340854090258773</v>
+        <v>0.04312861344361502</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07158608243777818</v>
+        <v>0.0721656800777658</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -8535,19 +8535,19 @@
         <v>48340</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37553</v>
+        <v>38084</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60563</v>
+        <v>61487</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03265724209069301</v>
+        <v>0.03265724209069303</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02536986514285038</v>
+        <v>0.02572844881595181</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04091469668303375</v>
+        <v>0.04153904608270882</v>
       </c>
     </row>
     <row r="23">
@@ -8564,19 +8564,19 @@
         <v>709222</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>702036</v>
+        <v>703799</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>712299</v>
+        <v>712507</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9928598159343943</v>
+        <v>0.9928598159343941</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9828003403008441</v>
+        <v>0.9852681851887329</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9971680952668193</v>
+        <v>0.9974591210325372</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>889</v>
@@ -8585,19 +8585,19 @@
         <v>722669</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>711081</v>
+        <v>710637</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>732662</v>
+        <v>732876</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9435443754152851</v>
+        <v>0.943544375415285</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9284139175622218</v>
+        <v>0.9278343199222342</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9565914590974122</v>
+        <v>0.9568713865563849</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1478</v>
@@ -8606,19 +8606,19 @@
         <v>1431890</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1419667</v>
+        <v>1418743</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1442677</v>
+        <v>1442146</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.967342757909307</v>
+        <v>0.9673427579093071</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9590853033169661</v>
+        <v>0.9584609539172914</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9746301348571496</v>
+        <v>0.9742715511840484</v>
       </c>
     </row>
     <row r="24">
@@ -8710,19 +8710,19 @@
         <v>6502</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2802</v>
+        <v>2775</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12816</v>
+        <v>12431</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008147313565564494</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003511411294655321</v>
+        <v>0.003477199839762875</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01605875551072476</v>
+        <v>0.01557617313283679</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -8731,19 +8731,19 @@
         <v>28759</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21063</v>
+        <v>21814</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>37982</v>
+        <v>38556</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03467955603335233</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02539933869966876</v>
+        <v>0.02630507851470076</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0458011380347929</v>
+        <v>0.0464938456172435</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>53</v>
@@ -8752,19 +8752,19 @@
         <v>35261</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27028</v>
+        <v>26217</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45254</v>
+        <v>45732</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02166776315526298</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01660892177667366</v>
+        <v>0.01611037383578379</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02780826979991651</v>
+        <v>0.02810244417445038</v>
       </c>
     </row>
     <row r="26">
@@ -8781,19 +8781,19 @@
         <v>791570</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>785256</v>
+        <v>785641</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>795270</v>
+        <v>795297</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9918526864344355</v>
+        <v>0.9918526864344356</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9839412444892752</v>
+        <v>0.984423826867163</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9964885887053446</v>
+        <v>0.9965228001602372</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1014</v>
@@ -8802,19 +8802,19 @@
         <v>800511</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>791288</v>
+        <v>790714</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>808207</v>
+        <v>807456</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9653204439666476</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9541988619652066</v>
+        <v>0.9535061543827563</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.974600661300331</v>
+        <v>0.9736949214852993</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1768</v>
@@ -8823,19 +8823,19 @@
         <v>1592081</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1582088</v>
+        <v>1581610</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1600314</v>
+        <v>1601125</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.978332236844737</v>
+        <v>0.9783322368447371</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9721917302000835</v>
+        <v>0.9718975558255497</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9833910782233263</v>
+        <v>0.9838896261642166</v>
       </c>
     </row>
     <row r="27">
@@ -8927,19 +8927,19 @@
         <v>29507</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19500</v>
+        <v>19710</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44772</v>
+        <v>44341</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008370133203932506</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005531526574221012</v>
+        <v>0.005591106479811779</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01270021616072682</v>
+        <v>0.01257790876100922</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>321</v>
@@ -8948,19 +8948,19 @@
         <v>176773</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>156312</v>
+        <v>159437</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>198111</v>
+        <v>197877</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04752222791806551</v>
+        <v>0.0475222279180655</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04202142501714563</v>
+        <v>0.04286162273564929</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05325849157586324</v>
+        <v>0.0531955348669183</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>356</v>
@@ -8969,19 +8969,19 @@
         <v>206281</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>184936</v>
+        <v>185592</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>229583</v>
+        <v>231184</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02847173125594331</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02552569029212231</v>
+        <v>0.02561622892697763</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03168795332212235</v>
+        <v>0.03190895019707982</v>
       </c>
     </row>
     <row r="29">
@@ -8998,19 +8998,19 @@
         <v>3495792</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3480527</v>
+        <v>3480958</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3505799</v>
+        <v>3505589</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9916298667960676</v>
+        <v>0.9916298667960677</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9872997838392733</v>
+        <v>0.9874220912389909</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.994468473425779</v>
+        <v>0.9944088935201884</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5020</v>
@@ -9019,19 +9019,19 @@
         <v>3543033</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3521695</v>
+        <v>3521929</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3563494</v>
+        <v>3560369</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9524777720819345</v>
+        <v>0.9524777720819344</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9467415084241364</v>
+        <v>0.9468044651330817</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9579785749828541</v>
+        <v>0.9571383772643507</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8353</v>
@@ -9040,19 +9040,19 @@
         <v>7038824</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7015522</v>
+        <v>7013921</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7060169</v>
+        <v>7059513</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9715282687440565</v>
+        <v>0.9715282687440567</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9683120466778776</v>
+        <v>0.9680910498029205</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9744743097078776</v>
+        <v>0.9743837710730224</v>
       </c>
     </row>
     <row r="30">
